--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1403020\Documents\Web\自動販売機\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1403020\Documents\Web\VendingMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="作るアプリの内容" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="2"/>
@@ -225,9 +225,6 @@
   <si>
     <t>Excel</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未着手</t>
   </si>
   <si>
     <t>ボタンタップ</t>
@@ -335,6 +332,14 @@
     <rPh sb="0" eb="3">
       <t>シンコウチュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -836,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,9 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1810,7 +1812,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -1875,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
@@ -1940,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
@@ -2019,7 +2021,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2149,7 +2151,7 @@
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="25"/>
@@ -2171,7 +2173,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>28</v>
@@ -2180,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="31"/>
@@ -2210,7 +2212,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="31"/>
@@ -2241,11 +2243,11 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -2265,10 +2267,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>17</v>
@@ -2278,7 +2280,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="45"/>
       <c r="H7" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -2298,7 +2300,7 @@
     <row r="8" spans="1:22">
       <c r="A8" s="13"/>
       <c r="B8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -2308,7 +2310,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -2328,7 +2330,7 @@
     <row r="9" spans="1:22">
       <c r="A9" s="13"/>
       <c r="B9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>17</v>
@@ -2338,7 +2340,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="32"/>
       <c r="H9" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="32"/>
@@ -2358,7 +2360,7 @@
     <row r="10" spans="1:22">
       <c r="A10" s="13"/>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>17</v>
@@ -2369,10 +2371,10 @@
       <c r="G10" s="32"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="31"/>
@@ -2390,10 +2392,10 @@
     <row r="11" spans="1:22">
       <c r="A11" s="13"/>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="32"/>
@@ -2410,7 +2412,9 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="S11" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
       <c r="V11" s="34"/>
@@ -2418,10 +2422,10 @@
     <row r="12" spans="1:22">
       <c r="A12" s="13"/>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="32"/>
@@ -2429,31 +2433,33 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="31"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="52"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="22" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="32"/>
@@ -2478,10 +2484,10 @@
     <row r="14" spans="1:22">
       <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="32"/>
